--- a/pur_doc/data/03_project.xlsx
+++ b/pur_doc/data/03_project.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15019194-8B3B-40C0-ABB2-C3B7B276B226}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768C827A-BC98-4C40-8C0F-224B7DDECD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_info" sheetId="5" r:id="rId1"/>
-    <sheet name="person" sheetId="6" r:id="rId2"/>
-    <sheet name="strategy" sheetId="7" r:id="rId3"/>
+    <sheet name="hella_person" sheetId="6" r:id="rId2"/>
+    <sheet name="mgs" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1363,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4420B9-EE54-4CBB-A6D1-72FDBB017391}">
   <dimension ref="A1:AD123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -12839,8 +12839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE23A38-0E28-496C-872C-BC25410C8318}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
